--- a/GastroSoft/LIS FIS 2023-Lista de Cotejo Entregas (1a, 2da, 3ra)_GASTROSOFT.xlsx
+++ b/GastroSoft/LIS FIS 2023-Lista de Cotejo Entregas (1a, 2da, 3ra)_GASTROSOFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lcaballero\2024\FMAT\FIS\PRIMERA ENTREGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuady-my.sharepoint.com/personal/a24216371_alumnos_uady_mx/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE0BEF-F6F0-4A2D-BDCB-747F26D9332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DAFFCBAB-D821-4132-B86C-6960E04E80DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C369A62-225C-4B97-AD14-631EB9601EE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
   </bookViews>
   <sheets>
     <sheet name="Rúbirca con Evidencias-1ra" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Nivel de Calidad de Evidencia</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Objetivo: Se identifica de forma clara y específica el objetivo del producto. Se definen alcances y limitaciones.</t>
+  </si>
+  <si>
+    <t>Alguna limitación?</t>
   </si>
   <si>
     <t>Usuarios/Clientes</t>
@@ -111,6 +114,9 @@
     </r>
   </si>
   <si>
+    <t>Reforzar la propuesta de valor</t>
+  </si>
+  <si>
     <t>Requisitos</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t xml:space="preserve">Se incluyen las actividades/tareas/herramientas de monitoreo y/o seguimiento. Se cuentan con bitácoras de las reuniones donde se pueden observar los acuerdos/resolución de conflictos, tareas, responsables, productos resultantes y fechas límite de entrega. </t>
   </si>
   <si>
+    <t>Además del review y retrospective las dayli meetings también son herramientas de monitoreo</t>
+  </si>
+  <si>
     <t>Métrica de Contribución Individual</t>
   </si>
   <si>
@@ -196,10 +205,16 @@
     <t>Se argumenta de qué forma se promueven las competencias genéricas a través de actividades específicas del desarrollo del producto.</t>
   </si>
   <si>
+    <t>Cómo aplicaron las competencias genéricas en esta primera entrega?</t>
+  </si>
+  <si>
     <t>Competencias Específicas</t>
   </si>
   <si>
     <t xml:space="preserve"> Se argumenta de qué forma se promueven las competencias específicas a través de actividades específicas del desarrollo del producto. </t>
+  </si>
+  <si>
+    <t>Cómo aplicaron las competencias específicas?</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -294,6 +309,9 @@
     <t xml:space="preserve">FUNDAMENTOS DE INGENIERÍA DE SOFTWARE </t>
   </si>
   <si>
+    <t>Periodo: Agosto- Diciembre 2024</t>
+  </si>
+  <si>
     <t>Primera Entrega.</t>
   </si>
   <si>
@@ -474,29 +492,54 @@
     </r>
   </si>
   <si>
-    <t>Periodo: Agosto- Diciembre 2024</t>
-  </si>
-  <si>
-    <t>Alguna limitación?</t>
-  </si>
-  <si>
-    <t>Además del review y retrospective las dayli meetings también son herramientas de monitoreo</t>
-  </si>
-  <si>
-    <t>Reforzar la propuesta de valor</t>
-  </si>
-  <si>
-    <t>Cómo aplicaron las competencias genéricas en esta primera entrega?</t>
-  </si>
-  <si>
-    <t>Cómo aplicaron las competencias específicas?</t>
+    <t>https://github.com/ValeriaCouoh/GastroSoft/blob/main/GastroSoft/SEGUNDA%20ENTREGA/1.%20PRODUCTO/Evoluci%C3%B3n%20del%20producto.md</t>
+  </si>
+  <si>
+    <t>GastroSoft/GastroSoft/SEGUNDA ENTREGA/2. REQUISITOS/EVOLUCIÓN DE REQUISITOS at main · ValeriaCouoh/GastroSoft</t>
+  </si>
+  <si>
+    <t>GastroSoft/GastroSoft/SEGUNDA ENTREGA/2. REQUISITOS/REFINAMIENTO DE ARTEFACTOS at main · ValeriaCouoh/GastroSoft</t>
+  </si>
+  <si>
+    <t>GastroSoft/GastroSoft/SEGUNDA ENTREGA/3. DISEÑO at main · ValeriaCouoh/GastroSoft</t>
+  </si>
+  <si>
+    <t>GastroSoft/GastroSoft/SEGUNDA ENTREGA/3. DISEÑO/VALIDACIÓN DE INTERFACES at main · ValeriaCouoh/GastroSoft</t>
+  </si>
+  <si>
+    <t>GastroSoft/GastroSoft/SEGUNDA ENTREGA/3. DISEÑO/Correspondencia con los requerimientos.md at main · ValeriaCouoh/GastroSoft</t>
+  </si>
+  <si>
+    <t>GastroSoft/GastroSoft/SEGUNDA ENTREGA/4. PROCESO at main · ValeriaCouoh/GastroSoft</t>
+  </si>
+  <si>
+    <t>TABLADEGESTIÓN.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GastroSoft/GastroSoft at SEGUNDA-ENTREGA · ValeriaCouoh/GastroSoft </t>
+  </si>
+  <si>
+    <t>https://www.canva.com/design/DAGVoWR5_IE/lIs9hB_PAD4KxED4I2PzBg/edit?utm_content=DAGVoWR5_IE&amp;utm_campaign=designshare&amp;utm_medium=link2&amp;utm_source=sharebutton</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AkzVhhZ7Fgc?si=IjyKNP-rB4PNCKUu</t>
+  </si>
+  <si>
+    <t>https://github.com/ValeriaCouoh/GastroSoft/blob/SEGUNDA-ENTREGA/GastroSoft/SEGUNDA%20ENTREGA/6.%20COMPETENCIAS/1.%20Competencias%20Gen%C3%A9ricas.md</t>
+  </si>
+  <si>
+    <t>GastroSoft/GastroSoft/SEGUNDA ENTREGA/6. COMPETENCIAS/2. Competencias Específicas.md at SEGUNDA-ENTREGA · ValeriaCouoh/GastroSoft</t>
+  </si>
+  <si>
+    <t>La branch de
+segunda entrega únicamente nos servía para subir información y después de ser revisada se pasaba al main.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -622,6 +665,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -936,10 +987,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -979,9 +1031,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1114,6 +1163,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1129,8 +1182,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1232,9 +1289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1272,7 +1329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1378,7 +1435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1520,7 +1577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1530,84 +1587,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A485DE-1598-634A-98A3-DB5E41A97E08}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
       <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="11" width="10.625" customWidth="1"/>
+    <col min="8" max="11" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+    <row r="1" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="H2" s="36">
+    <row r="2" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="H2" s="35">
         <v>0</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="36">
         <v>1</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="36">
         <v>2</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="H3" s="38" t="s">
+    <row r="3" spans="1:11" ht="28.2" thickBot="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="H3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.2" thickBot="1">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1615,18 +1671,18 @@
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1635,233 +1691,233 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="57">
         <v>3</v>
       </c>
-      <c r="I7" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="63.95" customHeight="1" thickBot="1">
-      <c r="B8" s="61"/>
+      <c r="I7" s="54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="63.9" customHeight="1" thickBot="1">
+      <c r="B8" s="62"/>
       <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="58">
+      <c r="D8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1">
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="57">
+        <v>17</v>
+      </c>
+      <c r="H9" s="56">
         <v>3</v>
       </c>
-      <c r="I9" s="55" t="s">
-        <v>83</v>
+      <c r="I9" s="54" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="H10" s="59"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="75" customHeight="1">
-      <c r="B11" s="61" t="s">
-        <v>17</v>
+      <c r="B11" s="62" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="57">
+        <v>21</v>
+      </c>
+      <c r="H11" s="56">
         <v>3</v>
       </c>
-      <c r="I11" s="53"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:11" ht="53.1" customHeight="1" thickBot="1">
-      <c r="B12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="58">
+        <v>23</v>
+      </c>
+      <c r="H12" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="15" t="s">
-        <v>22</v>
+    <row r="13" spans="1:11" ht="54.9" customHeight="1" thickBot="1">
+      <c r="B13" s="62"/>
+      <c r="C13" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="57">
+        <v>25</v>
+      </c>
+      <c r="H13" s="56">
         <v>2</v>
       </c>
-      <c r="I13" s="53"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:11" ht="76.5" customHeight="1">
-      <c r="B14" s="61"/>
-      <c r="C14" s="15" t="s">
-        <v>24</v>
+      <c r="B14" s="62"/>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="57">
+        <v>27</v>
+      </c>
+      <c r="H14" s="56">
         <v>3</v>
       </c>
-      <c r="I14" s="56"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" thickBot="1">
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="1:11" ht="81.95" customHeight="1" thickBot="1">
-      <c r="B16" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.2" thickBot="1">
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" ht="81.900000000000006" customHeight="1" thickBot="1">
+      <c r="B16" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="57">
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="59.1" customHeight="1">
-      <c r="B17" s="61"/>
-      <c r="C17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="58">
+      <c r="B17" s="62"/>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="57">
         <v>3</v>
       </c>
-      <c r="I17" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="81.95" customHeight="1" thickBot="1">
-      <c r="B18" s="61"/>
+      <c r="I17" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="81.900000000000006" customHeight="1" thickBot="1">
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="57">
+        <v>34</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="56">
         <v>3</v>
       </c>
-      <c r="I18" s="56"/>
-    </row>
-    <row r="19" spans="2:9" ht="38.25">
-      <c r="B19" s="61"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="2:9" ht="37.799999999999997">
+      <c r="B19" s="62"/>
       <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="57">
+        <v>36</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="56">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="16.5" thickBot="1">
-      <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="2:9" ht="77.25" thickBot="1">
-      <c r="B21" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="57">
+    <row r="20" spans="2:9" ht="16.2" thickBot="1">
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="2:9" ht="76.2" thickBot="1">
+      <c r="B21" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="56">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="25.5">
-      <c r="B22" s="64"/>
-      <c r="C22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="58">
+    <row r="22" spans="2:9" ht="25.2">
+      <c r="B22" s="65"/>
+      <c r="C22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="36" customHeight="1" thickBot="1">
-      <c r="B23" s="64"/>
-      <c r="C23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="57">
+      <c r="B23" s="65"/>
+      <c r="C23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="H24" s="60"/>
-    </row>
-    <row r="25" spans="2:9" ht="36.75" thickBot="1">
-      <c r="B25" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="57">
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="2:9" ht="31.8" thickBot="1">
+      <c r="B25" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="56">
         <v>2</v>
       </c>
-      <c r="I25" s="56" t="s">
-        <v>84</v>
+      <c r="I25" s="55" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="36">
-      <c r="B26" s="61"/>
-      <c r="C26" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="58">
+      <c r="B26" s="62"/>
+      <c r="C26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="57">
         <v>2</v>
       </c>
-      <c r="I26" s="56" t="s">
-        <v>85</v>
+      <c r="I26" s="55" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="F28" s="46" t="s">
-        <v>47</v>
+      <c r="F28" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="H28">
         <f>SUM(H7:H9,H11:H14,H16:H19,H21:H23,H25:H26)/(16*3)</f>
@@ -1869,7 +1925,7 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="F29" s="44">
+      <c r="F29" s="43">
         <v>0.1</v>
       </c>
       <c r="H29">
@@ -1896,82 +1952,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7860AAA-38BF-0546-A7C4-C189623F6894}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="65" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="157.59765625" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="11" width="10.625" customWidth="1"/>
+    <col min="8" max="11" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+    <row r="1" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A1" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="H2" s="36">
+    <row r="2" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="H2" s="35">
         <v>0</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="36">
         <v>1</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="36">
         <v>2</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="H3" s="38" t="s">
+    <row r="3" spans="1:11" ht="28.2" thickBot="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="H3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.2" thickBot="1">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1979,194 +2035,242 @@
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" ht="68.099999999999994" customHeight="1" thickBot="1">
+      <c r="B9" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" ht="83.1" customHeight="1">
+      <c r="B10" s="62"/>
+      <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="12" spans="1:11" ht="38.4" thickBot="1">
+      <c r="B12" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" ht="50.4">
+      <c r="B13" s="62"/>
+      <c r="C13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" ht="50.4">
+      <c r="B14" s="60"/>
+      <c r="C14" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.2" thickBot="1"/>
+    <row r="16" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
+      <c r="B16" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="2:9" ht="71.099999999999994" customHeight="1">
+      <c r="B17" s="62"/>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="2:9" ht="81.900000000000006" customHeight="1" thickBot="1">
+      <c r="B18" s="62"/>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="2:9" ht="234">
+      <c r="B19" s="62"/>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="16.2" thickBot="1"/>
+    <row r="21" spans="2:9" ht="63.6" thickBot="1">
+      <c r="B21" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:9" ht="25.2">
+      <c r="B22" s="65"/>
+      <c r="C22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="2:9" ht="36" customHeight="1" thickBot="1">
+      <c r="B23" s="65"/>
+      <c r="C23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="25" spans="2:9" ht="24.6" thickBot="1">
+      <c r="B25" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="2:9" ht="36">
+      <c r="B26" s="62"/>
+      <c r="C26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:11" ht="68.099999999999994" customHeight="1" thickBot="1">
-      <c r="B9" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="F26" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="F28" s="45" t="s">
         <v>52</v>
-      </c>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:11" ht="83.1" customHeight="1">
-      <c r="B10" s="61"/>
-      <c r="C10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="12" spans="1:11" ht="39" thickBot="1">
-      <c r="B12" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:11" ht="51">
-      <c r="B13" s="61"/>
-      <c r="C13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:11" ht="51">
-      <c r="B14" s="14"/>
-      <c r="C14" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" thickBot="1"/>
-    <row r="16" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
-      <c r="B16" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="2:8" ht="71.099999999999994" customHeight="1">
-      <c r="B17" s="61"/>
-      <c r="C17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="2:8" ht="81.95" customHeight="1" thickBot="1">
-      <c r="B18" s="61"/>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="2:8" ht="51">
-      <c r="B19" s="61"/>
-      <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="2:8" ht="16.5" thickBot="1"/>
-    <row r="21" spans="2:8" ht="77.25" thickBot="1">
-      <c r="B21" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="2:8" ht="25.5">
-      <c r="B22" s="64"/>
-      <c r="C22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="41"/>
-    </row>
-    <row r="23" spans="2:8" ht="36" customHeight="1" thickBot="1">
-      <c r="B23" s="64"/>
-      <c r="C23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="25" spans="2:8" ht="36.75" thickBot="1">
-      <c r="B25" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="2:8" ht="36">
-      <c r="B26" s="61"/>
-      <c r="C26" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="F28" s="46" t="s">
-        <v>47</v>
       </c>
       <c r="H28">
         <f>SUM(H7:H7,H9:H10,H16:H19,H21:H23,H25:H26)/(15*3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="F29" s="44">
+    <row r="29" spans="2:9">
+      <c r="F29" s="43">
         <v>0.1</v>
       </c>
       <c r="H29">
@@ -2183,6 +2287,23 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B12:B13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{65BC7BE6-EC6D-433F-B743-5A697B7602F2}"/>
+    <hyperlink ref="F9" r:id="rId2" display="https://github.com/ValeriaCouoh/GastroSoft/tree/main/GastroSoft/SEGUNDA ENTREGA/2. REQUISITOS/EVOLUCI%C3%93N DE REQUISITOS" xr:uid="{4FF5D70F-B5F1-460A-B5B7-0055CAECDDB5}"/>
+    <hyperlink ref="F10" r:id="rId3" display="https://github.com/ValeriaCouoh/GastroSoft/tree/main/GastroSoft/SEGUNDA ENTREGA/2. REQUISITOS/REFINAMIENTO DE ARTEFACTOS" xr:uid="{4FE40296-5BD3-4496-B7AB-4FEF024EF172}"/>
+    <hyperlink ref="F12" r:id="rId4" display="https://github.com/ValeriaCouoh/GastroSoft/tree/main/GastroSoft/SEGUNDA ENTREGA/3. DISE%C3%91O" xr:uid="{0B40C122-8967-410C-B945-9E10B452D581}"/>
+    <hyperlink ref="F14" r:id="rId5" display="https://github.com/ValeriaCouoh/GastroSoft/tree/main/GastroSoft/SEGUNDA ENTREGA/3. DISE%C3%91O/VALIDACI%C3%93N DE INTERFACES" xr:uid="{73454EBA-8F36-4B9F-8DFE-8BE3ED8EA336}"/>
+    <hyperlink ref="F13" r:id="rId6" display="https://github.com/ValeriaCouoh/GastroSoft/blob/main/GastroSoft/SEGUNDA ENTREGA/3. DISE%C3%91O/Correspondencia con los requerimientos.md" xr:uid="{07E12879-63A4-462F-ACC1-6C98F9E91CCE}"/>
+    <hyperlink ref="F16" r:id="rId7" display="https://github.com/ValeriaCouoh/GastroSoft/tree/main/GastroSoft/SEGUNDA ENTREGA/4. PROCESO" xr:uid="{3980992C-281F-4DC4-97A8-90FCF615894F}"/>
+    <hyperlink ref="F17" r:id="rId8" display="../../../:x:/g/personal/a24216371_alumnos_uady_mx/EVgiyh7cGCVOrsDoNi20wkABCN_vwIIbJzpJSJf0eRhrAw?e=KjeAPa" xr:uid="{DEA999F5-8E66-46C6-8086-2398CBCF961B}"/>
+    <hyperlink ref="F18" r:id="rId9" display="../../../:x:/g/personal/a24216371_alumnos_uady_mx/EVgiyh7cGCVOrsDoNi20wkABCN_vwIIbJzpJSJf0eRhrAw?e=KjeAPa" xr:uid="{C94D7A11-8041-4997-A28F-A63CD5DAEB6A}"/>
+    <hyperlink ref="F19" r:id="rId10" display="https://github.com/ValeriaCouoh/GastroSoft/tree/SEGUNDA-ENTREGA/GastroSoft" xr:uid="{CFCA7B9B-8929-4511-9A1E-A1586D509901}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{648C606F-276B-42FE-A233-460F2E720EF1}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{AFE4F774-EF86-4A60-9C0B-3C7398F6E923}"/>
+    <hyperlink ref="F23" r:id="rId13" xr:uid="{19DF952B-AAB5-4BAF-91FA-BAA0AEDD7110}"/>
+    <hyperlink ref="F25" r:id="rId14" xr:uid="{3A815FB2-7E87-457C-B57D-73254947A06F}"/>
+    <hyperlink ref="F26" r:id="rId15" display="https://github.com/ValeriaCouoh/GastroSoft/blob/SEGUNDA-ENTREGA/GastroSoft/SEGUNDA ENTREGA/6. COMPETENCIAS/2. Competencias Espec%C3%ADficas.md" xr:uid="{7E5F05FD-F9C7-4074-8727-99E980BC8C0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2196,145 +2317,145 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="49" t="s">
-        <v>67</v>
+      <c r="B3" s="48" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="49" t="s">
-        <v>68</v>
+      <c r="B4" s="48" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18.600000000000001">
+      <c r="B7" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B8" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B9" s="31">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="32">
+        <v>2</v>
+      </c>
+      <c r="E9" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="31.8" thickBot="1">
+      <c r="B10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="69.900000000000006" customHeight="1">
+      <c r="B13" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="66" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="18.75">
-      <c r="B7" s="47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1">
-      <c r="B8" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1">
-      <c r="B9" s="32">
-        <v>0</v>
-      </c>
-      <c r="C9" s="33">
-        <v>1</v>
-      </c>
-      <c r="D9" s="33">
-        <v>2</v>
-      </c>
-      <c r="E9" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="32.25" thickBot="1">
-      <c r="B10" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="69.95" customHeight="1">
-      <c r="B13" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="B18" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="B19" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="B20" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2352,21 +2473,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC989ECCC8B7AB4EA23CFB69585B4A70" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916e6eb0d82bab40262ee748395e3d30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="188a5053-cf46-4829-a43d-8f4e43557bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e968e44d62efd30be41830a10ee7cbce" ns2:_="">
     <xsd:import namespace="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
@@ -2504,24 +2610,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{758E0C9F-22C5-4206-988A-ED4D0E9DA74C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBEF48E-FC36-4C6E-9A65-4F854EFC868A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFE91A6-F782-4B1A-AC0B-52715868B243}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2537,4 +2641,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBEF48E-FC36-4C6E-9A65-4F854EFC868A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{758E0C9F-22C5-4206-988A-ED4D0E9DA74C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>